--- a/Data/Data_Raw/Country codes & metadata/country_classification.xlsx
+++ b/Data/Data_Raw/Country codes & metadata/country_classification.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumniutdt-my.sharepoint.com/personal/yllohis_mail_utdt_edu/Documents/WB/Data-Portal-Brief-Generator/Data/Data_Raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumniutdt-my.sharepoint.com/personal/yllohis_mail_utdt_edu/Documents/WB/Data-Portal-Brief-Generator/Data/Data_Raw/Country codes &amp; metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_1858BACB6AD1FE17FE0B5ADD79816C7EAEC78115" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9091FB2E-566A-4B86-A27E-51C86FD3AB15}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_1858BACB6AD1FE17FE0B5ADD79816C7EAEC78115" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DF01EA7-E537-4CA1-BE0E-2B58B860EBBE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1730,7 +1730,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1752,6 +1752,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1768,6 +1769,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2051,8 +2056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A217" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C219" sqref="C219"/>
+    <sheetView tabSelected="1" topLeftCell="A212" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2847,16 +2852,16 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="A57" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="11" t="s">
         <v>12</v>
       </c>
     </row>
